--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/INFANTIA/6.05/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/INFANTIA/6.05/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione sogei/Accreditamenti e report/INFANTIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/validazione_sogei/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/INFANTIA/6.05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F40A479-7C7F-4735-A9F3-8356AB0D99AB}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA13833D-33A4-40AA-8101-6C09659DD795}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="205">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1248,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1361,34 +1361,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1464,10 +1436,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3862,10 +3830,10 @@
   <dimension ref="A1:T651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4236,889 +4204,891 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
         <v>170</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="27">
         <v>45225</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="54" t="s">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
         <v>171</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="27">
         <v>45225</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="51" t="s">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="T14" s="54" t="s">
+      <c r="T14" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
         <v>172</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="27">
         <v>45225</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="51" t="s">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="T15" s="54" t="s">
+      <c r="T15" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
         <v>173</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="27">
         <v>45225</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="51" t="s">
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="T16" s="54" t="s">
+      <c r="T16" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+    <row r="17" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
         <v>174</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="51" t="s">
+      <c r="K17" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="54" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+    <row r="18" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
         <v>175</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="27">
         <v>45225</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51" t="s">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51" t="s">
+      <c r="O18" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="54" t="s">
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+    <row r="19" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
         <v>176</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51" t="s">
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="54" t="s">
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+    <row r="20" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
         <v>177</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="51" t="s">
+      <c r="K20" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="54" t="s">
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46">
+    <row r="21" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
         <v>178</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="54" t="s">
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
+    <row r="22" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
         <v>179</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="54" t="s">
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46">
+    <row r="23" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
         <v>180</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51" t="s">
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="51" t="s">
+      <c r="K23" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="54" t="s">
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46">
+    <row r="24" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
         <v>181</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51" t="s">
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K24" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="54" t="s">
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
+    <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
         <v>182</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="K25" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="54" t="s">
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
+    <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
         <v>183</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K26" s="51" t="s">
+      <c r="K26" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="54" t="s">
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46">
+    <row r="27" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
         <v>184</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K27" s="51" t="s">
+      <c r="K27" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="54" t="s">
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46">
+    <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
         <v>185</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="54" t="s">
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46">
+    <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
         <v>186</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="54" t="s">
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46">
+    <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
         <v>187</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K30" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="54" t="s">
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46">
+    <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
         <v>188</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="51" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="54" t="s">
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
+    <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
         <v>189</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="K32" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="54" t="s">
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46">
+    <row r="33" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
         <v>190</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="51" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="54" t="s">
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="55" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46">
+    <row r="34" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
         <v>375</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="27">
         <v>45225</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="I34" s="50" t="s">
+      <c r="I34" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="J34" s="51" t="s">
+      <c r="J34" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="54" t="s">
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="32" t="s">
         <v>46</v>
       </c>
     </row>

--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/INFANTIA/6.05/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/INFANTIA/6.05/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/validazione_sogei/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/INFANTIA/6.05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA13833D-33A4-40AA-8101-6C09659DD795}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C40EC28-D2F9-4D93-B65F-D75BBFB5B222}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="192">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -842,12 +842,6 @@
     <t>Non è possibile simulare tale scenario in quanto il nostro applicativo non prevede il salvataggio di una terapia o prescrizione senza la data di riferimento</t>
   </si>
   <si>
-    <t>il nostro gestionale non gestisce la sezione Piani di Cura ed essendo per pediatri non gestisce la sezione stili di vita</t>
-  </si>
-  <si>
-    <t>il nostro gestionale non gestisce le sezioni Piani di Cura e Reti di patologia ed essendo per pediatri non gestisce la sezione stili di vita</t>
-  </si>
-  <si>
     <t>Timeout scaduto. È trascorso il periodo di timeout prima del completamento dell'operazione</t>
   </si>
   <si>
@@ -863,15 +857,6 @@
     <t>403 Campo token JWT non valido.Il codice fiscale nel campo person_id non è corretto</t>
   </si>
   <si>
-    <t>2023-10-26T03:49:33Z</t>
-  </si>
-  <si>
-    <t>cb5f45c41ed1848e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.1a1055527b5642a8ed041845d1d8cae911428ee8640d084f684df789ba89dd7b.db35dbbf12^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-10-26T03:48:57Z</t>
   </si>
   <si>
@@ -881,37 +866,13 @@
     <t>2.16.840.1.113883.2.9.2.190201.4.4.0213e2038182b0e0694aee98c0ce9c19abb5aa23b51ebaf99c09f4321a615698.ef4f90857b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-10-26T03:50:36Z</t>
-  </si>
-  <si>
-    <t>801b09e3e252b2cb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.831f7be4852188f7561a7d335e4fcfaeb0a7dcf1dafda37165bc39e64db04d2f.de9b494ecf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-26T03:52:04Z</t>
-  </si>
-  <si>
-    <t>5c3722ab320e4cbe</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.791eafbae3f28af706a5207d544568e89b7b76c3498b3b0ce836b20b09b16645.710eccf4ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-26T03:52:46Z</t>
-  </si>
-  <si>
-    <t>6b4fb84574078ddf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.5e7de2542487a7dd82dd860b3f39a5e8740ab5cfe256a81f817eaf19f2dd4459.3192be4d8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-10-26T03:53:29Z</t>
   </si>
   <si>
     <t>3f014923230e1f06</t>
+  </si>
+  <si>
+    <t>il nostro gestionale non gestisce le sezioni Piani di Cura, Reti di patologia e annotazioni</t>
   </si>
 </sst>
 </file>
@@ -1436,6 +1397,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3830,10 +3795,10 @@
   <dimension ref="A1:T651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3946,7 +3911,7 @@
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
       <c r="C5" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" s="37"/>
       <c r="F5" s="12"/>
@@ -4160,7 +4125,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24">
         <v>46</v>
       </c>
@@ -4189,11 +4154,11 @@
         <v>60</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="29"/>
       <c r="R12" s="30" t="s">
@@ -4204,7 +4169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>170</v>
       </c>
@@ -4220,22 +4185,16 @@
       <c r="E13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="27">
-        <v>45225</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>190</v>
-      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="29"/>
+        <v>159</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
@@ -4248,7 +4207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>171</v>
       </c>
@@ -4264,22 +4223,16 @@
       <c r="E14" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="27">
-        <v>45225</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>196</v>
-      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="29"/>
+        <v>159</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -4287,14 +4240,12 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="30"/>
-      <c r="S14" s="29" t="s">
-        <v>181</v>
-      </c>
+      <c r="S14" s="29"/>
       <c r="T14" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>172</v>
       </c>
@@ -4310,22 +4261,16 @@
       <c r="E15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="27">
-        <v>45225</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>199</v>
-      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="29"/>
+        <v>159</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -4333,9 +4278,7 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="30"/>
-      <c r="S15" s="29" t="s">
-        <v>181</v>
-      </c>
+      <c r="S15" s="29"/>
       <c r="T15" s="32" t="s">
         <v>46</v>
       </c>
@@ -4356,22 +4299,16 @@
       <c r="E16" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="27">
-        <v>45225</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>202</v>
-      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="29"/>
+        <v>159</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
@@ -4379,9 +4316,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
-      <c r="S16" s="29" t="s">
-        <v>182</v>
-      </c>
+      <c r="S16" s="29"/>
       <c r="T16" s="32" t="s">
         <v>46</v>
       </c>
@@ -4444,13 +4379,13 @@
         <v>45225</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>60</v>
@@ -4463,7 +4398,7 @@
         <v>60</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O18" s="29" t="s">
         <v>159</v>
@@ -5068,13 +5003,13 @@
         <v>45225</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J34" s="29" t="s">
         <v>60</v>
